--- a/Проект/Осман/херня табличная, нахер тебя придумали, но удобно.xlsx
+++ b/Проект/Осман/херня табличная, нахер тебя придумали, но удобно.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\docrepo\Проект\Осман\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docrepo\Проект\Осман\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D6240-68BC-4317-B05E-45B98A6101A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684569B9-6DDF-474F-AC8F-F4D04238E73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,6 +159,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,103 +452,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="5">
+        <v>2742</v>
+      </c>
+      <c r="F1" s="7">
+        <v>5810</v>
+      </c>
+      <c r="H1" s="7">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="6">
+        <v>1190</v>
+      </c>
+      <c r="F2" s="8">
+        <v>515</v>
+      </c>
+      <c r="H2" s="8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="6">
+        <v>60</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6560</v>
+      </c>
+      <c r="H3" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="6">
+        <v>1374</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1710</v>
+      </c>
+      <c r="H4" s="8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="6">
+        <v>490</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H5" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="6">
+        <v>4.62</v>
+      </c>
+      <c r="F6" s="8">
+        <v>975</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15690</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H1:H6)</f>
+        <v>14635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="6">
+        <v>6019.2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="6">
+        <v>13940.45</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>SUM(D1:D9)</f>
+        <v>25889.27</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f>SUM(F1:F10)</f>
+        <v>42960</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H7,F11)</f>
+        <v>57595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -532,7 +650,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -540,7 +658,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -548,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B2:B14)</f>
         <v>98.4</v>

--- a/Проект/Осман/херня табличная, нахер тебя придумали, но удобно.xlsx
+++ b/Проект/Осман/херня табличная, нахер тебя придумали, но удобно.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docrepo\Проект\Осман\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684569B9-6DDF-474F-AC8F-F4D04238E73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B92A90-9B39-4C29-B40F-011FE63FA71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -171,6 +171,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +469,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +485,11 @@
       <c r="H1" s="7">
         <v>6870</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="9">
+        <v>12757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -496,8 +505,11 @@
       <c r="H2" s="8">
         <v>370</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="10">
+        <v>9629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -513,8 +525,11 @@
       <c r="H3" s="8">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="10">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -530,8 +545,11 @@
       <c r="H4" s="8">
         <v>495</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -547,8 +565,11 @@
       <c r="H5" s="8">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="10">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -564,8 +585,12 @@
       <c r="H6" s="8">
         <v>6610</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f>SUM(J1:J5)</f>
+        <v>26928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -583,7 +608,7 @@
         <v>14635</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -596,8 +621,12 @@
       <c r="F8" s="8">
         <v>3590</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f>2588927+12*57595+12*26928</f>
+        <v>3603203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -611,7 +640,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -626,7 +655,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -642,7 +671,7 @@
         <v>57595</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -650,7 +679,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -658,7 +687,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -666,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B2:B14)</f>
         <v>98.4</v>
